--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_229.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_229.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1942645698427382</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E']]</t>
-        </is>
+          <t>jaah_32</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1617873651771957</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'B', 'E', 'A', 'B']]</t>
+          <t>[['D:7', 'G', 'G'], ['G', 'G', 'D:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(51.315598, 63.292358)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(28.208042, 35.150809)]</t>
+          <t>[('0:00:15.790000', '0:00:20.070000'), ('0:00:11.550000', '0:00:15.790000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:05.780000', '0:00:11.380000'), ('0:00:06.560000', '0:00:12.600000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>isophonics_61</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>schubert-winterreise_165</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>0.1138310893512852</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[(12.38, 16.42)]</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.98, 20.58)]</t>
+          <t>[('0:01:36.752312', '0:01:39.387777')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:12.380000', '0:00:16.420000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2701149425287356</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
-        </is>
+          <t>jaah_47</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_0</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.109375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>[['Db:7', 'Gb', 'Gb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.18, 21.14)]</t>
+          <t>[['Db:7', 'Gb', 'Gb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(26.04, 58.88)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:20.140000', '0:00:23.580000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:28.079297', '0:00:32.374988')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04205002875215641</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:7', 'Eb:7']]</t>
-        </is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.225</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'F:7']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(31.66, 34.89)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(27.77, 30.62)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2358870967741936</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>isophonics_62</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2105263157894737</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>[['C#:min', 'A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.26, 7.82)]</t>
+          <t>[['E:min', 'C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:19.476303', '0:00:29.878843')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:40.941012', '0:00:51.657021')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3080357142857143</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4395604395604396</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>[['A', 'E', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(63.6, 66.04)]</t>
+          <t>[['C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(57.251357, 73.909779)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:47.015260', '0:01:07.077301')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:15.935351', '0:00:28.899196')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1233396584440228</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E/3', 'A', 'E/5', 'B']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_1</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5384615384615384</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(28.395907, 32.322199)]</t>
+          <t>[['Eb', 'Ab/5', 'Eb']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(99.445827, 105.343696)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:17.016000', '0:00:22.841000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.76, 25.82)]</t>
+          <t>[['A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(6.74, 21.54)]</t>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:05.800000', '0:00:15.900000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(19.602494, 26.162131)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(18.26, 24.82)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:25.720000', '0:00:51.960000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:58.780000', '0:02:02.740000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1582417582417582</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(17.833, 21.409)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(129.06, 134.2)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2916666666666666</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(111.92, 115.98)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(9.162102, 17.463236)]</t>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_39</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.44, 38.46)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.64, 43.66)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1066176470588235</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(38.041, 42.375)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(101.06, 102.38)]</t>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D/b7', 'C', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.75</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'G/2', 'D/5', 'A']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(52.193219, 58.683197)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(59.723, 64.464)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6708333333333334</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(25.18, 55.62)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(100.24, 102.38)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
